--- a/public/assets/excels/template-students.xlsx
+++ b/public/assets/excels/template-students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qlokappsdev/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qlokappsdev/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71D92B-51E2-144A-8678-1D8407A6645F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F4EB557-7256-1148-A1F4-8404D9DD341E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7E2EA7E2-1D5F-674A-94A6-55298610E493}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D4FB5BC1-8301-474F-8B4F-31D055DA160C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,86 +25,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nim</t>
-  </si>
-  <si>
-    <t>village</t>
-  </si>
-  <si>
-    <t>nik</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>birth_date</t>
-  </si>
-  <si>
-    <t>birth_place</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>religion</t>
-  </si>
-  <si>
-    <t>initial_registration_period</t>
-  </si>
-  <si>
-    <t>origin_department</t>
-  </si>
-  <si>
-    <t>upbjj</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>student_status</t>
-  </si>
-  <si>
-    <t>parent_name</t>
-  </si>
-  <si>
-    <t>parent_phone_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+  <si>
+    <t>Jurusan</t>
+  </si>
+  <si>
+    <t>Kelurahan</t>
+  </si>
+  <si>
+    <t>Nim</t>
+  </si>
+  <si>
+    <t>Nik</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Nomor WA</t>
+  </si>
+  <si>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Regis</t>
+  </si>
+  <si>
+    <t>Jurusan Asal</t>
+  </si>
+  <si>
+    <t>UPBJJ</t>
+  </si>
+  <si>
+    <t>Alamat Lengkap</t>
+  </si>
+  <si>
+    <t>Status Kemahasiswaan</t>
+  </si>
+  <si>
+    <t>Status Pendaftaran</t>
+  </si>
+  <si>
+    <t>Nama Wali</t>
+  </si>
+  <si>
+    <t>Nomor Telepon Wali</t>
   </si>
   <si>
     <t>Sistem Informasi</t>
   </si>
   <si>
+    <t>DEVA MAULANA</t>
+  </si>
+  <si>
+    <t>Laki - Laki</t>
+  </si>
+  <si>
     <t>ERWIN DWI KELANA</t>
   </si>
   <si>
+    <t>Tidak Aktif</t>
+  </si>
+  <si>
+    <t>Non RPL</t>
+  </si>
+  <si>
+    <t>CIPETIR</t>
+  </si>
+  <si>
     <t>MUHAMAD MISBAHUL FAROJ</t>
   </si>
   <si>
+    <t>Cianjur</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>2023 Ganjil</t>
+  </si>
+  <si>
+    <t>383/Teknik Komputer dan Jaringan</t>
+  </si>
+  <si>
+    <t>23/Bogor</t>
+  </si>
+  <si>
+    <t>KP. CIJARIAN KULON, RT. 020 RW. 006, DES. CIPETIR, KEC. KADUDAMPIT, KAB. SUKABUMI, JAWA BARAT</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>RPL</t>
+  </si>
+  <si>
     <t>WITRI UTAMI SURAHMAN</t>
   </si>
   <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
     <t>LUSINAWATI</t>
   </si>
   <si>
     <t>MUHAMAD DARIS HIZBULLAH</t>
   </si>
   <si>
+    <t>ANISA AMALIA SYAPUTRI</t>
+  </si>
+  <si>
+    <t>KARANGSARI</t>
+  </si>
+  <si>
     <t>WISUDAWATI DEA DJUNAIDI</t>
   </si>
   <si>
+    <t>GARUT</t>
+  </si>
+  <si>
+    <t>2023 GENAP</t>
+  </si>
+  <si>
+    <t>287/Teknik Informatika</t>
+  </si>
+  <si>
+    <t>KP. CIBOLERANG, RT. 003 RW. 007, DES. KARANGSARI, KEC. KARANGPAWITAN, KAB. GARUT, JAWA BARAT</t>
+  </si>
+  <si>
     <t>GIRI SUGIRI</t>
   </si>
   <si>
@@ -117,42 +177,15 @@
     <t>ALPI HUSAINI</t>
   </si>
   <si>
+    <t>MUHAMAD RAMLAN RAMDANI</t>
+  </si>
+  <si>
+    <t>RIZKY FAUZY</t>
+  </si>
+  <si>
     <t>YASMIN AMALIA</t>
   </si>
   <si>
-    <t>DEVA MAULANA</t>
-  </si>
-  <si>
-    <t>MUHAMAD RAMLAN RAMDANI</t>
-  </si>
-  <si>
-    <t>RIZKY FAUZY</t>
-  </si>
-  <si>
-    <t>KARANGPAWITAN</t>
-  </si>
-  <si>
-    <t>ANISA AMALIA SYAPUTRI</t>
-  </si>
-  <si>
-    <t>23/Bogor</t>
-  </si>
-  <si>
-    <t>287/Teknik Informatika</t>
-  </si>
-  <si>
-    <t>GARUT</t>
-  </si>
-  <si>
-    <t>2023 GENAP</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>Akuntansi</t>
   </si>
   <si>
@@ -171,6 +204,9 @@
     <t>YADI MULYADI</t>
   </si>
   <si>
+    <t>YUNITA FAJAR CHAERANI RUSENO</t>
+  </si>
+  <si>
     <t>ADISTI PUSPITA SARI</t>
   </si>
   <si>
@@ -240,9 +276,27 @@
     <t>KRETTY MARGARETA M.D.M.</t>
   </si>
   <si>
+    <t>NEZLA SELMA</t>
+  </si>
+  <si>
+    <t>TARISA PUTRI SALSA BILA</t>
+  </si>
+  <si>
+    <t>ANDHIKA RAMADIAN AFSIANDI</t>
+  </si>
+  <si>
+    <t>CIBADAK</t>
+  </si>
+  <si>
     <t>VINA BELLANI ARDIANA</t>
   </si>
   <si>
+    <t>SUKABUMI</t>
+  </si>
+  <si>
+    <t>198/Akuntansi</t>
+  </si>
+  <si>
     <t>CLARESA AURELIA</t>
   </si>
   <si>
@@ -265,27 +319,6 @@
   </si>
   <si>
     <t>RIFNADA SUSANTI</t>
-  </si>
-  <si>
-    <t>YUNITA FAJAR CHAERANI RUSENO</t>
-  </si>
-  <si>
-    <t>NEZLA SELMA</t>
-  </si>
-  <si>
-    <t>TARISA PUTRI SALSA BILA</t>
-  </si>
-  <si>
-    <t>ANDHIKA RAMADIAN AFSIANDI</t>
-  </si>
-  <si>
-    <t>CIBADAK</t>
-  </si>
-  <si>
-    <t>198/Akuntansi</t>
-  </si>
-  <si>
-    <t>SUKABUMI</t>
   </si>
 </sst>
 </file>
@@ -327,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -367,15 +400,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -396,20 +420,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,28 +432,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,41 +760,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E973CBFD-9282-9946-B19D-D1C0AC7A7C5E}">
-  <dimension ref="A1:Z68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EB1120-2353-4A43-B22D-43D8094029E5}">
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -832,15 +827,8 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -850,15 +838,15 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>35700</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -870,15 +858,8 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -888,13 +869,13 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -902,55 +883,65 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C4" s="1">
         <v>51103713</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3">
+        <v>36609</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -960,13 +951,13 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -978,15 +969,8 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -996,13 +980,13 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1014,15 +998,8 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1032,13 +1009,13 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1050,15 +1027,8 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1068,13 +1038,13 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1086,63 +1056,51 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1">
         <v>52090745</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>35700</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,13 +1110,13 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1170,15 +1128,8 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1188,13 +1139,13 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1206,15 +1157,8 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1224,13 +1168,13 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1242,15 +1186,8 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1260,13 +1197,13 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1278,15 +1215,8 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1296,13 +1226,13 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1314,15 +1244,8 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1332,13 +1255,13 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1350,15 +1273,8 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1368,14 +1284,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1386,17 +1300,10 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -1404,7 +1311,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1420,17 +1327,10 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -1438,7 +1338,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1454,17 +1354,10 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
@@ -1472,7 +1365,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1488,17 +1381,10 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -1506,7 +1392,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1522,17 +1408,10 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
@@ -1540,7 +1419,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1556,17 +1435,10 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
@@ -1574,7 +1446,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1590,17 +1462,10 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
@@ -1608,7 +1473,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1624,17 +1489,10 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
@@ -1642,7 +1500,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1658,17 +1516,10 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
@@ -1676,7 +1527,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1692,17 +1543,10 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
@@ -1710,7 +1554,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1726,17 +1570,10 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1">
@@ -1744,7 +1581,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1760,17 +1597,10 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1">
@@ -1778,7 +1608,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1794,17 +1624,10 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
@@ -1812,7 +1635,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1828,17 +1651,10 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
@@ -1846,7 +1662,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1862,17 +1678,10 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
@@ -1880,7 +1689,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1896,17 +1705,10 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1">
@@ -1914,7 +1716,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1930,17 +1732,10 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
@@ -1948,7 +1743,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1964,17 +1759,10 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -1982,7 +1770,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1998,17 +1786,10 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
@@ -2016,7 +1797,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2032,17 +1813,10 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1">
@@ -2050,7 +1824,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2066,17 +1840,10 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1">
@@ -2084,7 +1851,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2100,17 +1867,10 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
@@ -2118,7 +1878,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2134,17 +1894,10 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
@@ -2152,7 +1905,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2168,17 +1921,10 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1">
@@ -2186,7 +1932,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2202,17 +1948,10 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
@@ -2220,7 +1959,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2236,17 +1975,10 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="2"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1">
@@ -2254,7 +1986,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2270,17 +2002,10 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="2"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1">
@@ -2288,7 +2013,7 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2304,17 +2029,10 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1">
@@ -2322,7 +2040,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2338,17 +2056,10 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="2"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1">
@@ -2356,7 +2067,7 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2372,17 +2083,10 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1">
@@ -2390,7 +2094,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2406,17 +2110,10 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
@@ -2424,7 +2121,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2440,17 +2137,10 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
@@ -2458,7 +2148,7 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2474,63 +2164,49 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C49" s="1">
         <v>53245435</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="6">
+      <c r="G49" s="3">
         <v>35700</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1">
@@ -2538,7 +2214,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2554,17 +2230,10 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1">
@@ -2572,7 +2241,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2588,17 +2257,10 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1">
@@ -2606,7 +2268,7 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2622,17 +2284,10 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="2"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1">
@@ -2640,7 +2295,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2656,17 +2311,10 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1">
@@ -2674,7 +2322,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2690,17 +2338,10 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="2"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1">
@@ -2708,7 +2349,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2724,17 +2365,10 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="2"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1">
@@ -2742,7 +2376,7 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2758,355 +2392,243 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="2"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6">
         <v>54622392</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="7"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
